--- a/biology/Botanique/Encephalartos/Encephalartos.xlsx
+++ b/biology/Botanique/Encephalartos/Encephalartos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Encephalartos, du grec cephale, tête, et artos, pain, est un genre de plantes appartenant à la famille des Zamiaceae. Originaires d'Afrique, leur nom fait référence à la farine obtenue à partir du tronc de certaines espèces et consommées par les peuples locaux.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Encephalartos sont des arbustes à l'aspect de palmier, avec le plus souvent de grosses tiges pachycaules aériennes ou souterraines portant, implantées en spirale, de nombreuses feuilles pennées aux folioles épineuses.
 Les Encephalartos sont des espèces dioïques. Il existe des pieds mâles et des pieds femelles.
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes originaires d'Afrique.
 </t>
@@ -574,7 +590,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est au botaniste allemand Johann Georg Christian Lehmann (1792-1860) en 1834 que l'on doit cette distinction dans le groupe des cycas qui jusqu'alors faisaient tous partie du genre Zamia.
 </t>
@@ -605,9 +623,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (28 avril 2015)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (28 avril 2015) :
 Encephalartos aemulans Vorster (1990)
 Encephalartos altensteinii Lehm. (1834)
 Encephalartos aplanatus Vorster (1996)
@@ -675,7 +695,7 @@
 Encephalartos whitelockii P.J.H.Hurter (1995)
 Encephalartos woodii Sander, Gard. Chron., ser. 3 (1908)
 Liste d'espèces selon Tropicos et contenant possiblement des synonymes
-Selon Tropicos                                           (28 avril 2015)[2] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (28 avril 2015) (Attention liste brute contenant possiblement des synonymes) :
 Encephalartos aemulans Vorster
 Encephalartos altensteinii Lehm.
 Encephalartos aplanatus Vorster
